--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +125,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +151,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -158,16 +170,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,151 +486,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
       <c r="H6" t="s">
         <v>24</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="8" t="s">
         <v>27</v>
       </c>
     </row>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,18 +170,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,7 +468,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,22 +487,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -527,10 +528,10 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -545,7 +546,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="2"/>
@@ -555,17 +556,17 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -582,7 +583,7 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2"/>
@@ -599,10 +600,10 @@
       <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -613,7 +614,7 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2"/>
@@ -627,10 +628,10 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>27</v>
       </c>
     </row>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,12 +178,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,7 +468,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,22 +487,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -528,10 +528,10 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -556,10 +556,10 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -583,7 +583,7 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2"/>
@@ -600,10 +600,10 @@
       <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -614,7 +614,7 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2"/>
@@ -628,10 +628,10 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>27</v>
       </c>
     </row>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -176,7 +176,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -185,6 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,22 +487,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -515,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
@@ -528,10 +528,10 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -546,7 +546,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="2"/>
@@ -556,17 +556,17 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -600,10 +600,10 @@
       <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -628,10 +628,10 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
     </row>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +476,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="2.08984375" customWidth="1"/>
+    <col min="4" max="4" width="2.54296875" customWidth="1"/>
     <col min="5" max="5" width="23.7265625" customWidth="1"/>
     <col min="6" max="6" width="11.90625" customWidth="1"/>
     <col min="7" max="7" width="2.81640625" customWidth="1"/>
@@ -515,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2150" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>D1 (smartinside)</t>
   </si>
@@ -51,15 +51,6 @@
     <t>VAE</t>
   </si>
   <si>
-    <t>PSNR</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>CPL</t>
-  </si>
-  <si>
     <t>file names</t>
   </si>
   <si>
@@ -78,12 +69,6 @@
     <t>baseline_d1_psnr</t>
   </si>
   <si>
-    <t>baseline_d1_cs</t>
-  </si>
-  <si>
-    <t>baseline_d1_cpl</t>
-  </si>
-  <si>
     <t>exp1_d2_correlation</t>
   </si>
   <si>
@@ -99,10 +84,7 @@
     <t>baseline_d2_psnr</t>
   </si>
   <si>
-    <t>baseline_d2_cs</t>
-  </si>
-  <si>
-    <t>baseline_d2_cpl</t>
+    <t>VIF</t>
   </si>
 </sst>
 </file>
@@ -170,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -185,6 +167,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,20 +472,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -526,42 +511,34 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -573,8 +550,8 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -598,48 +575,40 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
@@ -591,7 +591,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,7 +510,7 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="6"/>
@@ -534,7 +534,7 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="6"/>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
@@ -574,7 +574,7 @@
       <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="6"/>
@@ -591,14 +591,14 @@
         <v>17</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="6"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>D1 (smartinside)</t>
   </si>
@@ -63,12 +63,6 @@
     <t>exp2_d1_search</t>
   </si>
   <si>
-    <t>baseline_d1_vae</t>
-  </si>
-  <si>
-    <t>baseline_d1_psnr</t>
-  </si>
-  <si>
     <t>exp1_d2_correlation</t>
   </si>
   <si>
@@ -78,13 +72,37 @@
     <t>exp2_d2_search</t>
   </si>
   <si>
-    <t>baseline_d2_vae</t>
-  </si>
-  <si>
-    <t>baseline_d2_psnr</t>
-  </si>
-  <si>
     <t>VIF</t>
+  </si>
+  <si>
+    <t>our method</t>
+  </si>
+  <si>
+    <t>our method with AL</t>
+  </si>
+  <si>
+    <t>D1_baseline_VAE</t>
+  </si>
+  <si>
+    <t>D2_baseline_VAE</t>
+  </si>
+  <si>
+    <t>D1_baseline_VIF</t>
+  </si>
+  <si>
+    <t>D2_baseline_VIF</t>
+  </si>
+  <si>
+    <t>D1_baseline_exp1</t>
+  </si>
+  <si>
+    <t>D2_baseline_exp1</t>
+  </si>
+  <si>
+    <t>D2_baseline_exp2</t>
+  </si>
+  <si>
+    <t>D1_baseline_exp2</t>
   </si>
 </sst>
 </file>
@@ -152,23 +170,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,27 +482,27 @@
     <col min="7" max="7" width="2.81640625" customWidth="1"/>
     <col min="8" max="8" width="18.453125" customWidth="1"/>
     <col min="9" max="9" width="18.90625" customWidth="1"/>
-    <col min="10" max="10" width="16.08984375" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" customWidth="1"/>
+    <col min="11" max="11" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -511,10 +526,14 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -527,18 +546,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -550,8 +573,8 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -571,44 +594,52 @@
         <v>8</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" t="s">
-        <v>19</v>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
